--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pdpn-Clec1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pdpn-Clec1b.xlsx
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>5.850914666666667</v>
+        <v>0.208324</v>
       </c>
       <c r="H2">
-        <v>17.552744</v>
+        <v>0.624972</v>
       </c>
       <c r="I2">
-        <v>0.07131897620325763</v>
+        <v>0.002558447967581038</v>
       </c>
       <c r="J2">
-        <v>0.07131897620325763</v>
+        <v>0.002558447967581039</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.962351</v>
+        <v>3.997860333333333</v>
       </c>
       <c r="N2">
-        <v>50.887053</v>
+        <v>11.993581</v>
       </c>
       <c r="O2">
-        <v>0.8940017581354524</v>
+        <v>0.6810627835305383</v>
       </c>
       <c r="P2">
-        <v>0.8940017581354524</v>
+        <v>0.6810627835305384</v>
       </c>
       <c r="Q2">
-        <v>99.24526824704802</v>
+        <v>0.8328502560813332</v>
       </c>
       <c r="R2">
-        <v>893.207414223432</v>
+        <v>7.495652304731999</v>
       </c>
       <c r="S2">
-        <v>0.06375929011413281</v>
+        <v>0.00174246369431879</v>
       </c>
       <c r="T2">
-        <v>0.06375929011413281</v>
+        <v>0.001742463694318791</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>5.850914666666667</v>
+        <v>0.208324</v>
       </c>
       <c r="H3">
-        <v>17.552744</v>
+        <v>0.624972</v>
       </c>
       <c r="I3">
-        <v>0.07131897620325763</v>
+        <v>0.002558447967581038</v>
       </c>
       <c r="J3">
-        <v>0.07131897620325763</v>
+        <v>0.002558447967581039</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>1.315824</v>
       </c>
       <c r="O3">
-        <v>0.02311686175650265</v>
+        <v>0.07471986524093907</v>
       </c>
       <c r="P3">
-        <v>0.02311686175650265</v>
+        <v>0.07471986524093907</v>
       </c>
       <c r="Q3">
-        <v>2.566257980117334</v>
+        <v>0.09137257299200001</v>
       </c>
       <c r="R3">
-        <v>23.096321821056</v>
+        <v>0.822353156928</v>
       </c>
       <c r="S3">
-        <v>0.001648670913506009</v>
+        <v>0.0001911668873636096</v>
       </c>
       <c r="T3">
-        <v>0.001648670913506009</v>
+        <v>0.0001911668873636097</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>5.850914666666667</v>
+        <v>0.208324</v>
       </c>
       <c r="H4">
-        <v>17.552744</v>
+        <v>0.624972</v>
       </c>
       <c r="I4">
-        <v>0.07131897620325763</v>
+        <v>0.002558447967581038</v>
       </c>
       <c r="J4">
-        <v>0.07131897620325763</v>
+        <v>0.002558447967581039</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.572550666666667</v>
+        <v>1.433563666666667</v>
       </c>
       <c r="N4">
-        <v>4.717652</v>
+        <v>4.300691</v>
       </c>
       <c r="O4">
-        <v>0.08288138010804502</v>
+        <v>0.2442173512285226</v>
       </c>
       <c r="P4">
-        <v>0.08288138010804502</v>
+        <v>0.2442173512285226</v>
       </c>
       <c r="Q4">
-        <v>9.200859759676446</v>
+        <v>0.2986457172946667</v>
       </c>
       <c r="R4">
-        <v>82.80773783708801</v>
+        <v>2.687811455652</v>
       </c>
       <c r="S4">
-        <v>0.005911015175618812</v>
+        <v>0.0006248173858986382</v>
       </c>
       <c r="T4">
-        <v>0.005911015175618812</v>
+        <v>0.0006248173858986383</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>155.927269</v>
       </c>
       <c r="I5">
-        <v>0.6335518359551047</v>
+        <v>0.6383194838544957</v>
       </c>
       <c r="J5">
-        <v>0.6335518359551048</v>
+        <v>0.6383194838544958</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.962351</v>
+        <v>3.997860333333333</v>
       </c>
       <c r="N5">
-        <v>50.887053</v>
+        <v>11.993581</v>
       </c>
       <c r="O5">
-        <v>0.8940017581354524</v>
+        <v>0.6810627835305383</v>
       </c>
       <c r="P5">
-        <v>0.8940017581354524</v>
+        <v>0.6810627835305384</v>
       </c>
       <c r="Q5">
-        <v>881.631022416473</v>
+        <v>207.7918145400321</v>
       </c>
       <c r="R5">
-        <v>7934.679201748257</v>
+        <v>1870.126330860289</v>
       </c>
       <c r="S5">
-        <v>0.5663964552138072</v>
+        <v>0.4347356444557193</v>
       </c>
       <c r="T5">
-        <v>0.5663964552138073</v>
+        <v>0.4347356444557194</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>155.927269</v>
       </c>
       <c r="I6">
-        <v>0.6335518359551047</v>
+        <v>0.6383194838544957</v>
       </c>
       <c r="J6">
-        <v>0.6335518359551048</v>
+        <v>0.6383194838544958</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,10 +809,10 @@
         <v>1.315824</v>
       </c>
       <c r="O6">
-        <v>0.02311686175650265</v>
+        <v>0.07471986524093907</v>
       </c>
       <c r="P6">
-        <v>0.02311686175650265</v>
+        <v>0.07471986524093907</v>
       </c>
       <c r="Q6">
         <v>22.79698253385067</v>
@@ -821,10 +821,10 @@
         <v>205.172842804656</v>
       </c>
       <c r="S6">
-        <v>0.0146457302073526</v>
+        <v>0.0476951458142737</v>
       </c>
       <c r="T6">
-        <v>0.0146457302073526</v>
+        <v>0.04769514581427371</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>155.927269</v>
       </c>
       <c r="I7">
-        <v>0.6335518359551047</v>
+        <v>0.6383194838544957</v>
       </c>
       <c r="J7">
-        <v>0.6335518359551048</v>
+        <v>0.6383194838544958</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.572550666666667</v>
+        <v>1.433563666666667</v>
       </c>
       <c r="N7">
-        <v>4.717652</v>
+        <v>4.300691</v>
       </c>
       <c r="O7">
-        <v>0.08288138010804502</v>
+        <v>0.2442173512285226</v>
       </c>
       <c r="P7">
-        <v>0.08288138010804502</v>
+        <v>0.2442173512285226</v>
       </c>
       <c r="Q7">
-        <v>81.73451027248755</v>
+        <v>74.51055582698656</v>
       </c>
       <c r="R7">
-        <v>735.610592452388</v>
+        <v>670.595002442879</v>
       </c>
       <c r="S7">
-        <v>0.05250965053394482</v>
+        <v>0.1558886935845026</v>
       </c>
       <c r="T7">
-        <v>0.05250965053394482</v>
+        <v>0.1558886935845026</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>20.78859333333333</v>
+        <v>25.552936</v>
       </c>
       <c r="H8">
-        <v>62.36577999999999</v>
+        <v>76.65880799999999</v>
       </c>
       <c r="I8">
-        <v>0.2533999003071884</v>
+        <v>0.3138181734938286</v>
       </c>
       <c r="J8">
-        <v>0.2533999003071884</v>
+        <v>0.3138181734938286</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.962351</v>
+        <v>3.997860333333333</v>
       </c>
       <c r="N8">
-        <v>50.887053</v>
+        <v>11.993581</v>
       </c>
       <c r="O8">
-        <v>0.8940017581354524</v>
+        <v>0.6810627835305383</v>
       </c>
       <c r="P8">
-        <v>0.8940017581354524</v>
+        <v>0.6810627835305384</v>
       </c>
       <c r="Q8">
-        <v>352.62341691626</v>
+        <v>102.1570692346053</v>
       </c>
       <c r="R8">
-        <v>3173.61075224634</v>
+        <v>919.4136231114478</v>
       </c>
       <c r="S8">
-        <v>0.2265399563859748</v>
+        <v>0.2137298787621763</v>
       </c>
       <c r="T8">
-        <v>0.2265399563859748</v>
+        <v>0.2137298787621763</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>20.78859333333333</v>
+        <v>25.552936</v>
       </c>
       <c r="H9">
-        <v>62.36577999999999</v>
+        <v>76.65880799999999</v>
       </c>
       <c r="I9">
-        <v>0.2533999003071884</v>
+        <v>0.3138181734938286</v>
       </c>
       <c r="J9">
-        <v>0.2533999003071884</v>
+        <v>0.3138181734938286</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,22 +995,22 @@
         <v>1.315824</v>
       </c>
       <c r="O9">
-        <v>0.02311686175650265</v>
+        <v>0.07471986524093907</v>
       </c>
       <c r="P9">
-        <v>0.02311686175650265</v>
+        <v>0.07471986524093907</v>
       </c>
       <c r="Q9">
-        <v>9.118043344746667</v>
+        <v>11.207722153088</v>
       </c>
       <c r="R9">
-        <v>82.06239010272</v>
+        <v>100.869499377792</v>
       </c>
       <c r="S9">
-        <v>0.005857810464512828</v>
+        <v>0.02344845163361651</v>
       </c>
       <c r="T9">
-        <v>0.005857810464512828</v>
+        <v>0.02344845163361651</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>20.78859333333333</v>
+        <v>25.552936</v>
       </c>
       <c r="H10">
-        <v>62.36577999999999</v>
+        <v>76.65880799999999</v>
       </c>
       <c r="I10">
-        <v>0.2533999003071884</v>
+        <v>0.3138181734938286</v>
       </c>
       <c r="J10">
-        <v>0.2533999003071884</v>
+        <v>0.3138181734938286</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.572550666666667</v>
+        <v>1.433563666666667</v>
       </c>
       <c r="N10">
-        <v>4.717652</v>
+        <v>4.300691</v>
       </c>
       <c r="O10">
-        <v>0.08288138010804502</v>
+        <v>0.2442173512285226</v>
       </c>
       <c r="P10">
-        <v>0.08288138010804502</v>
+        <v>0.2442173512285226</v>
       </c>
       <c r="Q10">
-        <v>32.69111630539555</v>
+        <v>36.63176062625867</v>
       </c>
       <c r="R10">
-        <v>294.22004674856</v>
+        <v>329.685845636328</v>
       </c>
       <c r="S10">
-        <v>0.02100213345670079</v>
+        <v>0.07663984309803579</v>
       </c>
       <c r="T10">
-        <v>0.02100213345670079</v>
+        <v>0.07663984309803579</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.423415666666667</v>
+        <v>3.688911666666666</v>
       </c>
       <c r="H11">
-        <v>10.270247</v>
+        <v>11.066735</v>
       </c>
       <c r="I11">
-        <v>0.0417292875344492</v>
+        <v>0.04530389468409456</v>
       </c>
       <c r="J11">
-        <v>0.0417292875344492</v>
+        <v>0.04530389468409456</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.962351</v>
+        <v>3.997860333333333</v>
       </c>
       <c r="N11">
-        <v>50.887053</v>
+        <v>11.993581</v>
       </c>
       <c r="O11">
-        <v>0.8940017581354524</v>
+        <v>0.6810627835305383</v>
       </c>
       <c r="P11">
-        <v>0.8940017581354524</v>
+        <v>0.6810627835305384</v>
       </c>
       <c r="Q11">
-        <v>58.06917815689901</v>
+        <v>14.74775362533722</v>
       </c>
       <c r="R11">
-        <v>522.6226034120909</v>
+        <v>132.729782628035</v>
       </c>
       <c r="S11">
-        <v>0.0373060564215374</v>
+        <v>0.0308547966183238</v>
       </c>
       <c r="T11">
-        <v>0.0373060564215374</v>
+        <v>0.03085479661832381</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.423415666666667</v>
+        <v>3.688911666666666</v>
       </c>
       <c r="H12">
-        <v>10.270247</v>
+        <v>11.066735</v>
       </c>
       <c r="I12">
-        <v>0.0417292875344492</v>
+        <v>0.04530389468409456</v>
       </c>
       <c r="J12">
-        <v>0.0417292875344492</v>
+        <v>0.04530389468409456</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,22 +1181,22 @@
         <v>1.315824</v>
       </c>
       <c r="O12">
-        <v>0.02311686175650265</v>
+        <v>0.07471986524093907</v>
       </c>
       <c r="P12">
-        <v>0.02311686175650265</v>
+        <v>0.07471986524093907</v>
       </c>
       <c r="Q12">
-        <v>1.501537498725334</v>
+        <v>1.617986168293333</v>
       </c>
       <c r="R12">
-        <v>13.513837488528</v>
+        <v>14.56187551464</v>
       </c>
       <c r="S12">
-        <v>0.0009646501711312115</v>
+        <v>0.003385100905685241</v>
       </c>
       <c r="T12">
-        <v>0.0009646501711312115</v>
+        <v>0.003385100905685241</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.423415666666667</v>
+        <v>3.688911666666666</v>
       </c>
       <c r="H13">
-        <v>10.270247</v>
+        <v>11.066735</v>
       </c>
       <c r="I13">
-        <v>0.0417292875344492</v>
+        <v>0.04530389468409456</v>
       </c>
       <c r="J13">
-        <v>0.0417292875344492</v>
+        <v>0.04530389468409456</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.572550666666667</v>
+        <v>1.433563666666667</v>
       </c>
       <c r="N13">
-        <v>4.717652</v>
+        <v>4.300691</v>
       </c>
       <c r="O13">
-        <v>0.08288138010804502</v>
+        <v>0.2442173512285226</v>
       </c>
       <c r="P13">
-        <v>0.08288138010804502</v>
+        <v>0.2442173512285226</v>
       </c>
       <c r="Q13">
-        <v>5.383494588893778</v>
+        <v>5.288289734876112</v>
       </c>
       <c r="R13">
-        <v>48.451451300044</v>
+        <v>47.594607613885</v>
       </c>
       <c r="S13">
-        <v>0.003458580941780589</v>
+        <v>0.01106399716008552</v>
       </c>
       <c r="T13">
-        <v>0.003458580941780589</v>
+        <v>0.01106399716008552</v>
       </c>
     </row>
   </sheetData>
